--- a/DummyData.xlsx
+++ b/DummyData.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="DummyData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -409,17 +409,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
     <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -435,7 +435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -443,7 +443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -451,7 +451,7 @@
         <v>43748</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -491,7 +491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -531,7 +531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -551,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -571,7 +571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -591,7 +591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -611,7 +611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -651,7 +651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -671,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -691,7 +691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -711,7 +711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -751,7 +751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -771,7 +771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -791,7 +791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -811,7 +811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -831,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -851,7 +851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -871,7 +871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -891,7 +891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -911,7 +911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -931,7 +931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -951,7 +951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
